--- a/data/input_excel/IEEE_mitigate_toxicity.xlsx
+++ b/data/input_excel/IEEE_mitigate_toxicity.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,110 +478,126 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023 ACM/IEEE International Symposium on Empirical Software Engineering and Measurement (ESEM)</t>
+          <t>2024 IEEE International Conference on Bioinformatics and Biomedicine (BIBM)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ToxiSpanSE: An Explainable Toxicity Detection in Code Review Comments</t>
+          <t>Comparative Evaluation and Data Analysis for Drug Toxicity Prediction</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>6273-6277</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Background: The existence of toxic conversations in open-source platforms can degrade relationships among software developers and may negatively impact software product quality. To help mitigate this, some initial work has been done to detect toxic comments in the Software Engineering (SE) domain. Aims: Since automatically classifying an entire text as toxic or non-toxic does not help human moderators to understand the specific reason(s) for toxicity, we worked to develop an explainable toxicity detector for the SE domain. Method: Our explainable toxicity detector can detect specific spans of toxic content from SE texts, which can help human moderators by automatically highlighting those spans. This toxic span detection model, ToxiSpanSE, is trained with the 19,651 code review (CR) comments with labeled toxic spans. Our annotators labeled the toxic spans within 3,757 toxic CR samples. We explored several types of models, including one lexicon-based approach and five different transformer-based encoders. Results: After an extensive evaluation of all models, we found that our fine-tuned RoBERTa model achieved the best score with 0.88 $F1$, 0.87 precision, and 0.93 recall for toxic class tokens, providing an explainable toxicity classifier for the SE domain. Conclusion: Since ToxiSpanSE is the first tool to detect toxic spans in the SE domain, this tool will pave a path to combat toxicity in the SE community.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+          <t>Throughout the entire drug development process, toxicity prediction is a significant process in assessing the possible toxicity of drugs. Recently, there has been active research on estimating drug toxicity using deep learning techniques. However, challenges such as a lack of labeled data and the insufficient reliable benchmark datasets remain major obstacles. To address these challenges, this study analyzes and compares seven toxicity benchmark datasets from the Therapeutics Data Commons and three external literature datasets. Experimental results demonstrated that deep learning methods showed superior performance on the benchmark datasets. In particular, on the ClinTox dataset, deep learning models outperformed conventional machine learning methods by 5.5%. The results confirm that employing self-supervised learning effectively mitigates the data limitation problem. Additionally, it was validated that using graph representation learning and natural language processing effectively handles chemical structures as drug features.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Drugs;Deep learning;Representation learning;Toxicology;Self-supervised learning;Benchmark testing;Transformers;Skin;Natural language processing;Reliability;Drug Toxicity Prediction;Machine Learning;Deep Learning;Self-Supervised Learning</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10.1109/ESEM56168.2023.10304855</t>
+          <t>10.1109/BIBM62325.2024.10822082</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Sarker, Jaydeb, Sultana, Sayma, Wilson, Steven R., Bosu, Amiangshu</t>
+          <t>Chu, Jae-Woo, Cho, Young-Rae</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2020 IEEE/ACM 42nd International Conference on Software Engineering: New Ideas and Emerging Results (ICSE-NIER)</t>
+          <t>2024 IEEE International Symposium on Biomedical Imaging (ISBI)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Stress and Burnout in Open Source: Toward Finding, Understanding, and Mitigating Unhealthy Interactions</t>
+          <t>Dose Aware Toxicity Prediction in Head and Neck Cancer Patients Using a Deformable 3D CNN on Daily CBCT Acquisitions</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>57-60</t>
+          <t>1-5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Developers from open-source communities have reported high stress levels from frequent demands for features and bug fixes and from the sometimes aggressive tone of these demands. Toxic conversations may demotivate and burn out developers, creating challenges for sustaining open source. We outline a path toward finding, understanding, and possibly mitigating such unhealthy interactions. We take a first step toward finding them, by developing and demonstrating a measurement instrument (an SVM classifier tailored for software engineering) to detect toxic discussions in GITHUB issues. We used our classifier to analyze trends over time and in different GITHUB communities, finding that toxicity varies by community and that toxicity decreased between 2012 and 2018.</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+          <t>With recent advancements in intensity-modulated radiotherapy and image guidance for cancer treatment, there is growing interest in Deep Learning-based Adaptive Radiotherapy due to its potential to mitigate radiation toxicity. During the course of treatment, daily acquisitions of cone beam computed tomography (CBCT) allows to monitor significant anatomical changes around the tumour target area and the response to treatment. Previous works have demonstrated the benefits of using anatomical deformation features as predictors of early toxicities. The objective of this work is to investigate the use of radiomic distributions to predict early reactive na-sogastric tubing (NG tube), radionecrosis and broad hospitalisation based on initial dosimetry plans. We propose a method combining inter-fractional anatomical deformation, dosimetry and clinical information to improve the prediction performance. For this work we implement a deformable registration pipeline and train a 3D convo-lutional neural network model on the Jacobian determinants of the deformation vector fields between different fractions of treatment. We exploit the dose plans as feature maps to focus the attention of the network on areas susceptible to radiation toxicity. We obtain balanced accuracy scores of 75.4% for radionecrosis at fraction 20,61.1% for hospitalisation after the first week of treatment and 74.1% for NG tube insertion after the 5th week.</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Solid modeling;Toxicology;Three-dimensional displays;Head;Deformation;Radiation therapy;Neck;3D CNN;Toxicity Prediction;Head and Neck Cancer;Dosimetry;CBCT;Deformable image registration</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.1109/ISBI56570.2024.10635238</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Raman, Naveen, Cao, Minxuan, Tsvetkov, Yulia, Kästner, Christian, Vasilescu, Bogdan</t>
+          <t>Henique, Gautier, Bang, Chulmin, Markel, Daniel, Le, William, Filion, Edith, Ngyuen-Tan, Phuc Felix, Bahig, Houda, Kadoury, Samuel</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2021 43rd Annual International Conference of the IEEE Engineering in Medicine &amp; Biology Society (EMBC)</t>
+          <t>2024 MIT Art, Design and Technology School of Computing International Conference (MITADTSoCiCon)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Time-varying Spectral Index of Electrodermal Activity to Predict Central Nervous System Oxygen Toxicity Symptoms in Divers: Preliminary results</t>
+          <t>Study of Deep Learning Techniques for Real-Time Online censorship using Comment Toxicity Detection</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1242-1245</t>
+          <t>1-5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The most effective method to mitigate decompression sickness in divers is hyperbaric oxygen (HBO2) pre-breathing. However, divers breathing HBO2 are at risk for developing central nervous system oxygen toxicity (CNS-OT), which can manifest as symptoms that might impair a diver’s performance, or cause more serious symptoms like seizures. In this study, we have collected electrodermal activity (EDA) signals in fifteen subjects at elevated oxygen partial pressures (2.06 ATA, 35 FSW) in the "foxtrot" chamber pool at the Duke University Hyperbaric Center, while performing a cognitive stress test for up to 120 minutes. Specifically, we have computed the time-varying spectral analysis of EDA (TVSymp) as a tool for sympathetic tone assessment and evaluated its feasibility for the prediction of symptoms of CNS-OT in divers. The preliminary results show large increase in the amplitude TVSymp values derived from EDA recordings ~2 minutes prior to expert human adjudication of symptoms related to oxygen toxicity. An early detection based on TVSymp might allow the diver to take countermeasures against the dire consequences of CNS-OT which can lead to drowning.Clinical Relevance—This study provides a sensitive analysis method which indicates a significant increase in the electrodermal activity prior to human expert adjudication of symptoms related to CNS-OT.</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>In an era where our online interactions are integral to our daily lives, addressing and mitigating online toxicity is crucial. This study, titled "Comment Toxicity Detection," aims to significantly advance ongoing efforts in this area. Our objective is to protect user welfare and encourage positive online interactions. This research addresses the urgent issue of online toxicity and its negative impact on user interactions and well-being. We explore various data sources and employ advanced feature engineering techniques such as BERT and its derivatives like m-BERT and MURIL BERT. By integrating these methods with various deep learning classifiers, we enhance our collective efforts to curb the spread of harmful content in digital spaces. We utilized an English dataset extracted from a larger multilingual corpus and preprocessed it using count vectorization for classification tasks. The evaluation metrics indicated a recall of 0.7103 and a precision of 0.7997. Our classification model used a Deep LSTM architecture with a batch size of 17. We are currently investigating the potential improvements in our data representation by incorporating a BERT-based model. This investigation is essential to optimize our classification performance, and the results should clarify the best practices for using advanced language representations to improve classification accuracy.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Deep learning;Measurement;Toxicology;Soft sensors;Computer architecture;Feature extraction;Real-time systems;Online Toxicity;Digital Interactions;Feature Engineering;BERT;MURIL BERT;m-BERT;Deep Learning Classifiers;Content Moderation;Online Safety;User-Generated Content</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>10.1109/EMBC46164.2021.9629924</t>
+          <t>10.1109/MITADTSoCiCon60330.2024.10575395</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Posada-Quintero, Hugo F., Derrick, Bruce J., Winstead-Derlega, Christopher, Gonzalez, Sara I., Claire Ellis, M., Freiberger, John J., Chon, Ki H.</t>
+          <t>Sugandh, Sarvesh, Shewalkar, Aditya, Singh, Anurag, Attarde, Sakshi, Jakhete, Sumitra A.</t>
         </is>
       </c>
     </row>
@@ -611,7 +627,11 @@
           <t>This paper explores machine learning application in the case of drug discovery. We apply extreme gradient boosting and K-nearest neighbor to biomedical data and it signiflcantly outperform former studies using feature selection and proper tuning parameters. The novel application motivated by a recent circumstance that there is a need for rapid development of radio-protectors. It mainly targets the DNA of growing cancer cells, whereas it has adverse side effects, including p53-induced apoptosis of normal tissues and cells. It considered that p53 would be a target for therapeutic and mitigated radioprotection to escape from the apoptotic fate. On the other hand, many types of compounds contain several level of toxicity, so it is important to consider not only radiation protection but also the level of toxicity of candidate compounds for radioprotectors. Compounds of radio-protectors that have low toxicity and high radiation protection are expected. It is possible to do efficiently the compounds discovery using machine learning. This study predicts compounds of radioprotectors using plural machine learning methods, Extreme Gradient Boosting, K-nearest neighbor, SVM and Random Forest. We compare these methods and suggest proper methods to predict radioprotectors.</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Compounds;Boosting;Support vector machines;Decision trees;Drugs;Cancer;component;Machine Learning;Extreme Gradient Boosting;K-nearest neighbor;SVM;Random Forest;radioprotectors</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>10.1109/CIBCB.2017.8058540</t>
@@ -626,50 +646,54 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2010 International Conference on Wireless Communication and Sensor Computing (ICWCSC)</t>
+          <t>2021 43rd Annual International Conference of the IEEE Engineering in Medicine &amp; Biology Society (EMBC)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mitigation of toxicity in marine mussels by autonomous mobile agents</t>
+          <t>Time-varying Spectral Index of Electrodermal Activity to Predict Central Nervous System Oxygen Toxicity Symptoms in Divers: Preliminary results</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>1242-1245</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>We propose an autonomous algorithm for mobile agents in multisensor fusion. Our algorithm is based on the concept of mutual information (MI) and the bounds obtained for correlated information. The bounds are obtained by our technique of Determinant Inequalities to maximize the mutual information to achieve the conditions for autonomy. We demonstrate the superiority our autonomous algorithm over the Principal Component Analysis (PCA) in mitigating the trace element toxicity present in marine mussels.</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>The most effective method to mitigate decompression sickness in divers is hyperbaric oxygen (HBO2) pre-breathing. However, divers breathing HBO2 are at risk for developing central nervous system oxygen toxicity (CNS-OT), which can manifest as symptoms that might impair a diver’s performance, or cause more serious symptoms like seizures. In this study, we have collected electrodermal activity (EDA) signals in fifteen subjects at elevated oxygen partial pressures (2.06 ATA, 35 FSW) in the "foxtrot" chamber pool at the Duke University Hyperbaric Center, while performing a cognitive stress test for up to 120 minutes. Specifically, we have computed the time-varying spectral analysis of EDA (TVSymp) as a tool for sympathetic tone assessment and evaluated its feasibility for the prediction of symptoms of CNS-OT in divers. The preliminary results show large increase in the amplitude TVSymp values derived from EDA recordings ~2 minutes prior to expert human adjudication of symptoms related to oxygen toxicity. An early detection based on TVSymp might allow the diver to take countermeasures against the dire consequences of CNS-OT which can lead to drowning.Clinical Relevance—This study provides a sensitive analysis method which indicates a significant increase in the electrodermal activity prior to human expert adjudication of symptoms related to CNS-OT.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Electric potential;Toxicology;Sensitivity;Oxygen;Central nervous system;Tools;Time-varying systems</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>10.1109/ICWCSC.2010.5415880</t>
+          <t>10.1109/EMBC46164.2021.9629924</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Kumar, P.T.Krishna, Vinod, P.T., Madhusudana, Suhas, Iyengar, S.S.</t>
+          <t>Posada-Quintero, Hugo F., Derrick, Bruce J., Winstead-Derlega, Christopher, Gonzalez, Sara I., Claire Ellis, M., Freiberger, John J., Chon, Ki H.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2023 3rd International Conference on Pervasive Computing and Social Networking (ICPCSN)</t>
+          <t>2023 ACM/IEEE International Symposium on Empirical Software Engineering and Measurement (ESEM)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cyber Bullying and Toxicity Detection Using Machine Learning</t>
+          <t>ToxiSpanSE: An Explainable Toxicity Detection in Code Review Comments</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,61 +703,69 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>66-73</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>The increased use of online platforms for communication has made cyberbullying and toxicity detection a critical issue in recent times. This paper explores the topic of cyberbullying and toxicity detection and proposes potential solutions for identifying cyber violence and offensive language more effectively. According to the study of the algorithms in examined research papers on cyberbullying and toxicity detection, this research study presents a novel approach that achieved 90% accuracy in identifying bully text in social media comments. This is done by using machine learning algorithms such as SVM, Logistic Regression, Naive Bayes, KNN, and Random Forest, with SVM and Random Forest exhibiting the best performance. Additionally, the system improved the accuracy of identifying bully images in social media posts to 84.5% by using the MobileNetV2 model (DNN), which is superior to other approaches. The system is trained using a large, labeled dataset of text data to identify and classify different types of cyberbullying and toxic content. The findings suggest that the proposed models hold promise in detecting instances of cyberbullying and offensive content effectively. These results have significant implications for the development of cyberbullying and toxicity detection systems. The proposed approach can be integrated into various social media platforms and online communities to identify and mitigate cyberbullying and toxic content more efficiently. The study also highlights the need for continued research and collaboration among stakeholders to address cyberbullying and toxicity effectively.</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>Background: The existence of toxic conversations in open-source platforms can degrade relationships among software developers and may negatively impact software product quality. To help mitigate this, some initial work has been done to detect toxic comments in the Software Engineering (SE) domain. Aims: Since automatically classifying an entire text as toxic or non-toxic does not help human moderators to understand the specific reason(s) for toxicity, we worked to develop an explainable toxicity detector for the SE domain. Method: Our explainable toxicity detector can detect specific spans of toxic content from SE texts, which can help human moderators by automatically highlighting those spans. This toxic span detection model, ToxiSpanSE, is trained with the 19,651 code review (CR) comments with labeled toxic spans. Our annotators labeled the toxic spans within 3,757 toxic CR samples. We explored several types of models, including one lexicon-based approach and five different transformer-based encoders. Results: After an extensive evaluation of all models, we found that our fine-tuned RoBERTa model achieved the best score with 0.88 $F1$, 0.87 precision, and 0.93 recall for toxic class tokens, providing an explainable toxicity classifier for the SE domain. Conclusion: Since ToxiSpanSE is the first tool to detect toxic spans in the SE domain, this tool will pave a path to combat toxicity in the SE community.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Toxicology;Codes;Detectors;Oral communication;Transformers;Software;Product design;toxicity;span detection;software engineering;natural language processing;explainability</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>10.1109/ICPCSN58827.2023.00017</t>
+          <t>10.1109/ESEM56168.2023.10304855</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Jadhav, Ranjana, Agarwal, Naman, Shevate, Srushti, Sawakare, Chinmayee, Parakh, Piyush, Khandare, Snehankit</t>
+          <t>Sarker, Jaydeb, Sultana, Sayma, Wilson, Steven R., Bosu, Amiangshu</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2021 IEEE International Symposium on Technology and Society (ISTAS)</t>
+          <t>2010 International Conference on Wireless Communication and Sensor Computing (ICWCSC)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Protecting marginalized communities by mitigating discrimination in toxic language detection</t>
+          <t>Mitigation of toxicity in marine mussels by autonomous mobile agents</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1-7</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>As the harms of online toxic language become more apparent, countering online toxic behavior is an essential application of natural language processing. The first step in managing toxic language risk is identification, but algorithmic approaches have themselves demonstrated bias. Texts containing some demographic identity terms such as gay or Black are more likely to be labeled as toxic in existing toxic language detection datasets. In many machine learning models introduced for toxic language detection, non-toxic comments containing minority and marginalized community-specific identity terms were given unreasonably high toxicity scores. To address the challenge of bias in toxic language detection, we propose a two-step training approach. A pretrained language model with a multitask learning objective will mitigate biases in the toxicity classifier prediction. Experiments demonstrate that jointly training the pretrained language model with a multitask objective can effectively mitigate the impacts of unintended biases and is more robust to model bias towards commonly-attacked identity groups presented in datasets without significantly hurting the model’s generalizability.</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>We propose an autonomous algorithm for mobile agents in multisensor fusion. Our algorithm is based on the concept of mutual information (MI) and the bounds obtained for correlated information. The bounds are obtained by our technique of Determinant Inequalities to maximize the mutual information to achieve the conditions for autonomy. We demonstrate the superiority our autonomous algorithm over the Principal Component Analysis (PCA) in mitigating the trace element toxicity present in marine mussels.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mobile agents;Mutual information;Information theory;Principal component analysis;Monitoring;Robust stability;Tellurium;Marine technology;Educational institutions;Computer science;mobile agents;autonomous systems;maximum mutual information;Determinant Inequalities;lower bounds</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>10.1109/ISTAS52410.2021.9629201</t>
+          <t>10.1109/ICWCSC.2010.5415880</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Faal, Farshid, Schmitt, Ketra, Yu, Jia Yuan</t>
+          <t>Kumar, P.T.Krishna, Vinod, P.T., Madhusudana, Suhas, Iyengar, S.S.</t>
         </is>
       </c>
     </row>
@@ -763,7 +795,11 @@
           <t>The virtual range (VR) is an environment that integrates in a seamless fashion several models to improve complex systems visualization. A complex system is a nonlinear system of systems whose interactions bring together interesting emergent properties that are very difficult to visualize and/or study by using the traditional approach of decomposition. The VR toxicity model as described here represents the different systems that interact in the determination of the expectation of casualties (E/sub c/) resulting from the toxic effects of the gas dispersion that occurs after a disaster affecting a space shuttle within 120 seconds of liftoff. We present a detailed description of the VR and the factors affecting E/sub c/. The system helps local authorities to estimate the population at risk in order to plan for areas to evacuate and/or for the resources required to provide aid and comfort and mitigate damages in case of a disaster.</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Propellants;Virtual reality;Vehicles;Geographic Information Systems;Wind;Sensitivity analysis;Space shuttles;Pollution;Uncertainty;NASA</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
           <t>10.1109/WSC.2004.1371528</t>
@@ -778,558 +814,1518 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022 IEEE/ACM 44th International Conference on Software Engineering: Software Engineering in Society (ICSE-SEIS)</t>
+          <t>2024 International Conference on Science, Engineering and Business for Driving Sustainable Development Goals (SEB4SDG)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Detecting Interpersonal Conflict in Issues and Code Review: Cross Pollinating Open- and Closed-Source Approaches</t>
+          <t>Impact of Turmeric-Based Diet and Its Aqueous Extract on Rats Treated with Alloxan for Alkaline Phosphatase and Aspartate Aminotransferase Levels</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>41-55</t>
+          <t>1-6</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Interpersonal conflict in code review, such as toxic language or an unnecessary pushback, is associated with negative outcomes such as stress and turnover. Automatic detection is one approach to prevent and mitigate interpersonal conflict. Two recent automatic detection approaches were developed in different settings: a toxicity detector using text analytics for open source issue discussions and a pushback detector using logs-based metrics for corporate code reviews. This paper tests how the toxicity detector and the pushback detector can be generalized beyond their respective contexts and discussion types, and how the combination of the two can help improve interpersonal conflict detection. The results reveal connections between the two concepts. LAY ABSTRACT Software engineers often communicate with one another on platforms that support tasks like discussing bugs and inspecting each others‘ code. Such discussions sometimes contain interpersonal conflict, which can lead to stress and abandonment. In this paper, we investigate how to automatically detect interpersonal conflict, both by analyzing the text of the what the engineers are saying and by analyzing the properties of that text.</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>Alloxan has been well-documented as a trigger for experimental diabetes, which may be associated with impaired liver function, organ toxicity, and damage, among other effects. In this study, how a diet containing turmeric and its extract affected the liver, kidney, heart, and serum of rats treated with alloxan was examined. The impacts were evaluated by measuring the levels of alkaline phosphatase and alanine aminotransferase in those organs mentioned earlier. Forty female albino rats were divided randomly into five groups (A, B, C, D, and E) each containing five rats. Groups A, C, and E received a diet containing 5% turmeric formulation. Group B was fed a basal diet, while groups D and E received daily oral administration of 10% turmeric crude extract. The dietary study continued for 21 days, following which all groups aside from group A received an induction of 150 mg/kg body weight of alloxan and were then monitored for 48 hours. The Blood glucose levels of each rat were determined using a glucometer. Administration of alloxan led to detrimental effects on the functions of certain organs, including the liver, heart, and plasma. This is supported by a notable elevation (P ≤ 0.05) in the levels of alkaline phosphatase (ALP) and aspartate aminotransferase (AST) enzymes in the group of rats induced with alloxan, in comparison to the normal control group. Pre-administration of a turmeric-formulated diet and extract to rats treated with alloxan mitigated the impact of alloxan on the activities of ALP and AST enzymes in the liver compared to rats treated with alloxan alone. This was demonstrated by the significant reduction in the activities of liver ALP and AST of rats in group B when compared with the control group (A). Also, there was a remarkable significant difference (p ≤ 0.05) in the activities of ALP and AST enzymes in group (E) compared with the negative control. Therefore, it can be concluded that a turmeric-formulated diet and extract might mitigate alloxan-induced toxicity in the experimental organs.</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Heart;Enzymes;Toxicology;Powders;Liver;Rats;Diabetes;Turmeric;Alloxan;Aspartate Aminotransferase;Alkaline Phosphatase;Toxicity</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10.1145/3510458.3513019</t>
+          <t>10.1109/SEB4SDG60871.2024.10629897</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Qiu, Huilian Sophie, Vasilescu, Bogdan, Kästner, Christian, Egelman, Carolyn, Jaspan, Ciera, Murphy-Hill, Emerson</t>
+          <t>Oluwafemi, Adekemi G., Aluko, Bukola T., Acho, Marvellous A., Rotimi, Damilare E., Nwonuma, Charles, Akinduko, Ayokunmi</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2023 International Conference on Science, Engineering and Business for Sustainable Development Goals (SEB-SDG)</t>
+          <t>2020 IEEE/ACM 42nd International Conference on Software Engineering: New Ideas and Emerging Results (ICSE-NIER)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Auspicious and Adverse Effects of Curcuma longa L Supplemented Diet on Total Protein and Kidney Injury Molecule-1 in Indomethacin Treated Rats</t>
+          <t>Stress and Burnout in Open Source: Toward Finding, Understanding, and Mitigating Unhealthy Interactions</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>57-60</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>The influences of Curcuma longa rhizome supplemented diet at different percentages on total protein concentration in serum, selected organs (heart, kidney and liver) and kidney injury molecule-1 (KIM-1) of indomethacin treated rats were investigated in this study. A total of 35 mature male Wistar rats, weighing between 110 and 160g, were divided into seven groups of five rats each at random. Rats in groups A through D were fed diets supplemented with 1%, 2%, 5%, and 10% turmeric; group E received a pre-treatment of the conventional medication omeprazole (20 mg/kg) orally; and groups F and G received a 28-day supply of regular rat meal. Animals in all groups were then given a single oral dose of indomethacin (60 mg/kg b.w.), fasted for the next day (except group G), and left for six (6) hours before being sacrificed. The effect(s) of turmeric rhizome powder on total protein concentration in serum, the selected organs mentioned above and kidney KIM-1 were determined. It was revealed from this study that there was increased serum total protein concentration of animals in F and D groups compared with animals in groups G and A-C with concomitant decrease in heart and kidney protein activities in concentration dependent manner. However, there was no concomitant decrease in the liver of animals in groups G and A-C. Furthermore, the result also showed a significant $(P &lt; 0.05)$ increased expression of the kidney injury marker, KIM-1 in groups F and D in comparison with groups G and A-C in dose dependent wise. It can therefore be concluded that consumption of turmeric at 10% of whole recipe can enhance the damaging effect of indomethacin. Nonetheless, inclusion of turmeric powder at moderate concentration between 1-5% at most could mitigate the tissue damaging effect of indomethacin and therefore serve as tissue protective agent.</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>10.1109/SEB-SDG57117.2023.10124489</t>
-        </is>
-      </c>
+          <t>Developers from open-source communities have reported high stress levels from frequent demands for features and bug fixes and from the sometimes aggressive tone of these demands. Toxic conversations may demotivate and burn out developers, creating challenges for sustaining open source. We outline a path toward finding, understanding, and possibly mitigating such unhealthy interactions. We take a first step toward finding them, by developing and demonstrating a measurement instrument (an SVM classifier tailored for software engineering) to detect toxic discussions in GITHUB issues. We used our classifier to analyze trends over time and in different GITHUB communities, finding that toxicity varies by community and that toxicity decreased between 2012 and 2018.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Support vector machines;Toxicology;Sustainable development;Stress;Open source software;Software development management;Software engineering;toxicity;open source;github;community;sustainability;oss;classifier</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Oluwafemi, Adekemi Grace, Ajayi, Olubunmi Bolanle, Amarachi, Acho Marvellous, Emmanuel, Damilare Rotimi, Omoniwa, Babasoji Percy</t>
+          <t>Raman, Naveen, Cao, Minxuan, Tsvetkov, Yulia, Kästner, Christian, Vasilescu, Bogdan</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024 IEEE/CVF Conference on Computer Vision and Pattern Recognition (CVPR)</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Mitigation of whole-body gamma radiation–induced damages by Clerodendron infortunatum in mammalian organisms</t>
+          <t>HalluciDoctor: Mitigating Hallucinatory Toxicity in Visual Instruction Data</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>281-291</t>
+          <t>12944-12953</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Several phytoceuticals and extracts of medicinal plants are reported to mitigate deleterious effects of ionizing radiation. The potential of hydro-alcoholic extract of Clerodendron infortunatum (CIE) for providing protection to mice exposed to gamma radiation was investigated. Oral administration of CIE bestowed a survival advantage to mice exposed to lethal doses of gamma radiation. Radiation-induced depletion of the total blood count and bone marrow cellularity were prevented by treatment with CIE. Damage to the cellular DNA (as was evident from the comet assay and the micronucleus index) was also found to be decreased upon CIE administration. Radiation-induced damages to intestinal crypt cells was also reduced by CIE. Studies on gene expression in intestinal cells revealed that there was a marked increase in the Bax/Bcl-2 ratio in mice exposed to whole-body 4 Gy gamma radiation, and that administration of CIE resulted in significant lowering of this ratio, suggestive of reduction of radiation-induced apoptosis. Also, in the intestinal tissue of irradiated animals, following CIE treatment, levels of expression of the DNA repair gene Atm were found to be elevated, and there was reduction in the expression of the inflammatory Cox-2 gene. Thus, our results suggest a beneficial use of Clerodendron infortunatum for mitigating radiation toxicity.</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>Multi-modal Large Language Models (MLLMs) tuned on machine-generated instruction-following data have demonstrated remarkable performance in various multi-modal understanding and generation tasks. However, the hallucinations inherent in machine-generated data, which could lead to hallucinatory outputs in MLLMs, remain under-explored. This work aims to investigate various hallucinations (i.e., object, relation, attribute hallucinations) and mitigate those hallucinatory toxicities in large-scale machine-generated visual instruction datasets. Drawing on the human ability to identify factual errors, we present a novel hallucination detection and elimination framework, HalluciDoctor, based on the cross-checking paradigm. We use our framework to identify and eliminate hallucinations in the training data automatically. Interestingly, HalluciDoctor also indicates that spurious correlations arising from long-tail object cooccurrences contribute to hallucinations. Based on that, we execute counterfactual visual instruction expansion to balance data distribution, thereby enhancing MLLMs' resistance to hallucinations. Comprehensive experiments on hallucination evaluation benchmarks show that our method successfully mitigates 44.6% hallucinations relatively and maintains competitive performance compared to LLaVA. The data and code for this paper are publicly available.11https://github.com/Yuqifan1117/HalluciDoctor</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Measurement;Visualization;Computer vision;Toxicology;Correlation;Codes;Large language models;Hallucinations;Multi-modal Language Model;Vision-language reasoning</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10.1093/jrr/rrw093</t>
+          <t>10.1109/CVPR52733.2024.01230</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Chacko, Tiju, Menon, Aditya, Majeed, Teeju, Nair, Sivaprabha V., John, Nithu Sara, Nair, Cherupally Krishnan Krishnan</t>
+          <t>Yu, Qifan, Li, Juncheng, Wei, Longhui, Pang, Liang, Ye, Wentao, Qin, Bosheng, Tang, Siliang, Tian, Qi, Zhuang, Yueting</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2003 User Group Conference. Proceedings</t>
+          <t>2024 IEEE International Workshop on Metrology for Industry 4.0 &amp; IoT (MetroInd4.0 &amp; IoT)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Defense against chemical warfare agents and toxic industrial chemicals</t>
+          <t>Prompt Evolution Through Examples for Large Language Models–A Case Study in Game Comment Toxicity Classification</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>55-59</t>
+          <t>22-27</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Research on mitigation of toxic threats is critical to national defense, but is often hazardous. Toxicity generally arises at the molecular level via reactions between toxins and host biomolecules. This lends itself well to simulations from which one may safely derive the insight required for effective preventative or therapeutic response strategies. Thus, we have applied quantum chemical methods to address toxicity arising from both hostile (i.e., nerve agents) and inadvertent (e.g., toxic industrial chemicals) sources. Neurotoxic reactions involving inhibition of the acetylcholinesterase enzyme have been structurally and energetically characterized with mind to mitigating the process. In a complementary effort, interactions between toxins and various catalytic and filtering media have been reported with an aim of improving chemical protection devices.</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>This paper presents a novel approach for automatic prompt optimization (APO) using a large language model (LLM) as an optimizer, named Prompt Evolution Through Examples (PETE). The approach draws inspiration from evolutionary computation for the prompt evolution stages. We aim to aid in developing prompts for use in systems classifying toxic content including game community moderator-assist tools. While traditional approaches are useful for developing these tools, they have various shortcomings where LLMs can potentially mitigates these issues. LLMs accept prompts as inputs to condition generated outputs. However, to design a prompt with the best performance in this task, fine-grained adjustments are usually required and should be automated through the APO process instead of a manual approach, which is often time-consuming. In this study, ChatGPT and GPT-4 are utilized as both task performers and prompt optimizers for comparisons across models. The results indicate that PETE improves the performance of the target task up to 56.14% from a performance of an initial prompt, compared to only up to 49.15% using a standard mutation evolution. Optimized prompts are provided for future utilization in other game community moderation tools. We also recommend that future studies explore more cost-effective approaches for evaluation using LLMs to enhance the benefits of APO.</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Toxicology;Costs;Large language models;Computational modeling;Games;Manuals;Evolutionary computation;Evolutionary computation;Prompt engineering;ChatGPT;GPT-4;Errorful learning</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10.1109/DODUGC.2003.1253374</t>
+          <t>10.1109/MetroInd4.0IoT61288.2024.10584130</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Hurley, M.M., Wright, J.B., Balboa, A., Lushington, G.H.</t>
+          <t>Taveekitworachai, Pittawat, Abdullah, Febri, Gursesli, Mustafa Can, Lanata, Antonio, Guazzini, Andrea, Thawonmas, Ruck</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2006 International Conference of the IEEE Engineering in Medicine and Biology Society</t>
+          <t>2023 International Joint Conference on Neural Networks (IJCNN)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Neural Interface Dynamics Following Insertion of Hydrous Iridium Oxide Microelectrode Arrays</t>
+          <t>Mitigating Negative Transfer with Task Awareness for Sexism, Hate Speech, and Toxic Language Detection</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3178-3181</t>
+          <t>1-8</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Studies examining traumatic brain injury have suggested a 'window of opportunity' exists for therapeutic agents to mitigate edema and cellular toxicity effectively. However, successful therapy also relies on identifying the extent of blood-brain barrier disruption, which is associated with excessive extra-cellular concentrations of ions, excitatory amino acids, and serum proteins. The following study investigates the use of pH-selective hydrous iridium oxide microelectrodes to assess trauma following insertion of a neural probe. Electrochemical activation of iridium microelectrode arrays was performed in either acidic (0.5 M H2SO4) or weak basic (0.3 M Na2HPO4, pH=8.56) solutions. Both oxides demonstrated super-Nernstian pH sensitivity (-88.5 mV/pH and -77.1 mV/pH, respectively) with little interference by other cations. Data suggest that acid-grown oxide provides better potential stability than base-grown oxide (sigma=2.8 versus 4.9 mV over 5 hours). Implantation of these electrodes into motor cortex and dorsal striatum revealed significant acidosis during and following insertion. Variability in the spatiotemporal pH profile included micro-scale inhomogeneities along the probe shank and significant differences in the averaged pH response between successive insertions using the same depth and speed. This diagnostic technology has important implications for intervention therapies in order to more effectively treat acute surgical brain trauma</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
+          <t>This paper proposes a novelty approach to mitigate the negative transfer problem. In the field of machine learning, the common strategy is to apply the Single-Task Learning approach in order to train a supervised model to solve a specific task. Training a robust model requires a lot of data and a significant amount of computational resources, making this solution unfeasible in cases where data are unavailable or expensive to gather. Therefore another solution, based on the sharing of information between tasks, has been developed: Multi-task Learning (MTL). Despite the recent developments regarding MTL, the problem of negative transfer has still to be solved. Negative transfer is a phenomenon that occurs when noisy information is shared between tasks, resulting in a drop in performance. This paper proposes a new approach to mitigate the negative transfer problem based on the task awareness concept. The proposed approach results in diminishing the negative transfer together with an improvement of performance over classic MTL solution. Moreover, the proposed approach has been implemented in two unified architectures to detect Sexism, Hate Speech, and Toxic Language in text comments. The proposed architectures set a new state-of-the-art both in EXIST-2021 and HatEval-2019 benchmarks.</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Training;Computational modeling;Hate speech;Neural networks;Computer architecture;Machine learning;Multitasking;Multi-task Learning;Negative Transfer;Natural Language Processing;Deep Learning</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>10.1109/IEMBS.2006.260521</t>
+          <t>10.1109/IJCNN54540.2023.10191347</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Johnson, Matthew D., Langhals, Nicholas B., Kipke, Daryl R.</t>
+          <t>de Paula, Angel Felipe Magnossão, Rosso, Paolo, Spina, Damiano</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2021 International Conference on e-Health and Bioengineering (EHB)</t>
+          <t>2023 3rd International Conference on Pervasive Computing and Social Networking (ICPCSN)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Salinity and SiO&lt;inf&gt;2&lt;/inf&gt; Impact on Growth and Biochemical Responses of Basil (Ocimum Basilicum L.) Seedlings</t>
+          <t>Cyber Bullying and Toxicity Detection Using Machine Learning</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1-4</t>
+          <t>66-73</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Silicon has the ability in ameliorating the negative effect of salinity on plants by reducing ionic toxicity and maintaining plant water balance, reducing oxidative stress. The present paper examines the effects of saline stress (50mM and 100mM NaCl) applied singular and in combination with SiO2 on basil (Ocimum basilicum L.) seedlings. Significant changes occurred in terms of shoot length, varying from 7.27 mm (50 mM NaCl) to 8.39 mm (50mM NaCl+SiNPs), and in the case of radicles, from 3.22 mm (SiNP) to 3.98 mm (100 mM NaCl), suggesting that salt treatment reduces shoot elongation, and SiO2 application could mitigate the saline stress effect. The activity of antioxidant enzymes in O. basilicum seedlings exposed to treatments, singular or in combination, was generally lower compared to the control. SiO2 supplement may contribute to the increase of salt tolerance, as reflected by the improvement of SOD and POD activity, especially in the combined treatment of 100 mM NaCl+SiO2.</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
+          <t>The increased use of online platforms for communication has made cyberbullying and toxicity detection a critical issue in recent times. This paper explores the topic of cyberbullying and toxicity detection and proposes potential solutions for identifying cyber violence and offensive language more effectively. According to the study of the algorithms in examined research papers on cyberbullying and toxicity detection, this research study presents a novel approach that achieved 90% accuracy in identifying bully text in social media comments. This is done by using machine learning algorithms such as SVM, Logistic Regression, Naive Bayes, KNN, and Random Forest, with SVM and Random Forest exhibiting the best performance. Additionally, the system improved the accuracy of identifying bully images in social media posts to 84.5% by using the MobileNetV2 model (DNN), which is superior to other approaches. The system is trained using a large, labeled dataset of text data to identify and classify different types of cyberbullying and toxic content. The findings suggest that the proposed models hold promise in detecting instances of cyberbullying and offensive content effectively. These results have significant implications for the development of cyberbullying and toxicity detection systems. The proposed approach can be integrated into various social media platforms and online communities to identify and mitigate cyberbullying and toxic content more efficiently. The study also highlights the need for continued research and collaboration among stakeholders to address cyberbullying and toxicity effectively.</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Support vector machines;Pervasive computing;Logistic regression;Toxicology;Machine learning algorithms;Cyberbullying;Forestry;Hate speech;Image-based detection;Neural Networks;Random forest;Support Vector Machine (SVM);Text-based Detection</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>10.1109/EHB52898.2021.9657645</t>
+          <t>10.1109/ICPCSN58827.2023.00017</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Oprica, Lacramioara, Grigore, Marius-Nicusor, Bara, Iulia, Vochita, Gabriela</t>
+          <t>Jadhav, Ranjana, Agarwal, Naman, Shevate, Srushti, Sawakare, Chinmayee, Parakh, Piyush, Khandare, Snehankit</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2017 Third International Conference on Advances in Electrical, Electronics, Information, Communication and Bio-Informatics (AEEICB)</t>
+          <t>2023 IEEE 23rd International Conference on Bioinformatics and Bioengineering (BIBE)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Nanotechnology enabled hybrid power system suitable for batteries in hybrid electric vehicle</t>
+          <t>A Graph-Based Approach to Mitigate Drug-Drug Interactions and Optimize Therapeutic Regimens</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>33-35</t>
+          <t>211-218</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Hybrid electric vehicles are playing very important key role in transportation. As atmospheric imbalance is a cause of large amount of carbon emission due to fuel used in vehicles. So to mitigate this problem use of electric vehicles is increasing day by day. Lithium-ion batteries are playing very crucial role in hybrid electric vehicles. As these batteries are very beneficial for proper functioning of hybrid electric vehicles. So Lithium-ion is the best and most promising choice at the present. Lithium-ion batteries have myriad amount of applications in the field of electric vehicles and portable electronics. The worldwide demand for a clean, low fuel-consuming road transportation system has given raises to the rapid growth of hybrid electric vehicles. Nanotechnology is playing vital role in enhancing the battery life. So use of nanostructure materials in battery design is increasing day by day. This enables battery to become effectual in many applications Lithium- ion batteries (LIBs) are the best choice as they have advantages such as high energy density, high discharge power and long service life. In large scale applications of lithium ion battery important aspects such as safety, toxicity, cost and myriad of raw materials become highly significant and also high discharge rate requirements can be fulfill by the use of nanostructure materials to achieve performance targets. This paper mainly focuses on use of nanotechnology in lithium-ion battery technology. For this purpose system can be designed which is combination of many technology and based on nanotechnology that enables to use nanostructure materials for lithium ion battery used in hybrid electric vehicles. This system is nanotechnology enabled hybrid system which can be very beneficial to ameliorates the performance of the battery that will further helps in ameliorating performance of hybrid electric vehicles. Super capacitors are used in parallel combination in the hybrid system to increases battery performance, efficiency and life of battery this system can play important role in betterment of transportation as well as in enhancing electrification of transportation. Nanostructure materials in batteries ameliorate the electrochemical performances of existing electrode materials for lithium-ion batteries, for this purpose nanotechnology based hybrid system is very beneficial.</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
+          <t>Drug-drug interactions (DDIs) pose a significant issue in modern healthcare, potentially compromising treatment efficacy and patient safety. DDIs arise when significant alterations occur in the pharmacological action of a drug due to its co-administration with another drug, leading to potential adverse drug reactions (ADRs), toxicity or diminished therapeutic efficacy. Apart from the obvious cases of drug combinations that should be avoided, there are instances where risk-benefit analysis may allow co-administration. Hence, DDIs may represent clinically significant cases depending on the clinical outcome, time point of administration, etc. The issue is especially critical in cases of patients with multimorbidity and complex therapeutic regimens with different time points in drug administrations. This work employs a graph-based approach aimed at optimizing therapeutic regiments while considering the minimization of DDIs potential. In this approach each drug is represented as a node, and edges represent the clinical significance of DDIs. We aim to identify sets of drugs that either have no DDIs or exhibit minor to moderate clinical significance (referred to as Maximal Independent Sets), indicating that they can be taken together. In practice, we solved the complementary problem, which is finding Maximal Cliques. Both problems are NP-hard, but for small graphs, they can be solved exactly. From all the cliques we identify, those selected to be a part of each proposed therapeutic regimen must consist of nodes that appear only once. This problem is once again reduced to clique finding. The above approach is demonstrated using two clinical scenarios involving two patients who are experiencing polypharmacy and are at risk for ADRs due to potential DDIs of varying clinical significance. By applying our approach, the therapeutic schemes are optimized towards minimizing the risk of ADRs.</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Drugs;Toxicology;Minimization;Safety;Electronic healthcare;Bioinformatics;Biomedical engineering;drug-drug interactions;DDIs;ADRs;patient safety;toxicity;therapeutic regimens;graphs;graph nodes;adverse drug events;adverse drug reactions</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>10.1109/AEEICB.2017.7972378</t>
+          <t>10.1109/BIBE60311.2023.00041</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Deshpande, Vaibhav S., Talele, Mohit N.</t>
+          <t>Spanakis, Marios, Tzamali, Eleftheria, Tzedakis, Georgios, Spanakis, Emmanouil G., Tsatsakis, Aristides, Sakkalis, Vangelis</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2023 4th International Conference on Big Data, Artificial Intelligence and Internet of Things Engineering (ICBAIE)</t>
+          <t>2024 15th International Conference on Computing Communication and Networking Technologies (ICCCNT)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>A Multi-dimensional Generic Evaluation Framework for the Security of Large Language Models</t>
+          <t>Machine Learning Approaches for CKD Identification among HIV-Afflicted Individuals</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>410-414</t>
+          <t>1-5</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>In light of the widespread adoption of large language models, their susceptibility to security vulnerabilities cannot be overlooked. As a result, it has become imperative to evaluate their proficiency in addressing issues such as toxicity, bias, and disinformation. However, current research focused on appraising and mitigating security risks has predominantly concentrated on specific facets, leading to disparities in evaluation criteria. In contrast, there has been relatively limited attention given to multidimensional and universal frameworks for security evaluation. In this context, this paper delves into the realm of generic evaluation frameworks for security that offer support for cross-language and multi-category analysis. We underscore the existing challenges associated with prominent large language models concerning security issues and develop a comprehensive test data set to furnish researchers with a tool for quantifying security aspects. Through comprehensive evaluations across three major benchmark tests, we identify distinct strengths and weaknesses exhibited by each open source large language model to varying degrees. By employing a multi-dimensional security evaluation framework, we can attain a more holistic comprehension of the performance exhibited by each model across diverse security dimensions. This approach holds significant value in advancing the domain of security research and facilitating the practical application of language models.</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
+          <t>Chronic Kidney Disease (CKD) exhibits a significant healthcare dispute globally, predominantly among individuals living with HIV, where its prevalence and severity are heightened. Early detection of CKD in HIV patients is crucial for timely intervention and improved outcomes. The paper proposes a novel approach leveraging machine-learning techniques for the identification and classification of CKD in HIV patients. Traditional diagnostic methods often fail to detect CKD in its early stages due to asymptomatic presentation, leading to delayed treatment and disease progression. By harnessing the power of machine learning and the wealth of pathology data available, the study aims to enhance CKD diagnosis efficiency and accuracy. The methodology involves the development and evaluation of machine learning models trained on diverse datasets encompassing clinical and demographic variables alongside specific kidney function metrics, such as glomerular filtration rate (GFR). The models enable the classification of CKD presence and staging, facilitating early intervention and tailored patient care strategies. Through rigorous evaluation and validation processes, the efficacy and reliability of the proposed machine learning-based approach are assessed, paving the way for its integration into clinical practice. By providing clinicians with advanced tools for CKD detection in HIV patients, this research endeavours to improve patient outcomes, mitigate disease progression, and alleviate the burden on healthcare systems.The algorithms utilized in this study include:1.KNeighbors classifier2.DecisionTreeClassifier3.RandomForestClassifier4.AdaBoostClassifier5.XgBoostThrough rigorous evaluation and validation processes, the efficacy and reliability of the proposed machine learning-based approach are assessed, paving the way for its integration into clinical practice. By providing clinicians with advanced tools for CKD detection in HIV patients, this research endeavours to improve patient outcomes, mitigate disease progression, and alleviate the burden on healthcare systems.</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Technological innovation;Machine learning algorithms;Accuracy;Medical services;Machine learning;Predictive models;Chronic kidney disease;Reliability;Diseases;Principal component analysis;Electronic Health Records (EHR);Chronic Renal Diseases;Healthcare Analytics;Machine Learning;Ensemble Approach</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>10.1109/ICBAIE59714.2023.10281279</t>
+          <t>10.1109/ICCCNT61001.2024.10725376</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Yu, Zhiyin</t>
+          <t>Janani, D., Ramakrishnan, S., Arungarai Selvan, E, Mohana Prasath, K K, Sudharsan, R</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2005 4th International Symposium on Environmentally Conscious Design and Inverse Manufacturing</t>
+          <t>2014 IEEE International Conference on Bioinformatics and Biomedicine (BIBM)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>The Study of Designing for Environment on Liquid Crystal Display</t>
+          <t>Virtual screening, ADMET profiling, molecular docking and dynamics approaches to search for potent selective natural molecule based inhibitors against metallothionein-III to study Alzheimer's disease</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>523-524</t>
+          <t>352-356</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>The Flat Panel Display Industry in Taiwan recently has reached a numerous export value with tens of billion US dollars. It is also a core industry for Taiwan. However, the recent environmental protection strategy and directives developed in Europe, US, and Japan have been gradually shifting from the end of pipe mindset to a more impacts preventive approach from the product designing phase, which was perceived as a new trade barrier that could have significant negative impacts on Taiwan industries. Thus, this paper categorizes the international environmental standards, relative regulations and proposes some strategies of DfE for LCD products in Taiwan. This paper also presented successful cases of DfE application in LCD Monitor, indicated significant benefits could be obtained. For this case, costs reduction around $65,000 US dollars in materials and 2,500 hours saving in labor was achieved every year, and the pollutants emission was also mitigated with rate around 20∼30% estimated. By using saving energy, low toxicity, and recycling concept into development of LCD products, it would improve these products to comply with requirements from international regulations.</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
+          <t>Motivation: Metallothionein-III (MT-III) displays neuro-inhibitory activity and is involved in the repair of neuronal damage. An altered expression level of MT-III suggests that it could be a mitigating factor in Alzheimer's disease (AD) neuronal dysfunction. Currently there are limited marketed drugs available against MT-III. The inhibitors are mostly pseudo-peptide based with limited ADMET. In our present study, available database InterBioScreen (natural compounds) was screened out for MT-III. Pharmacodynamics and pharmacokinetic studies were performed. Molecular docking and simulations of top hit molecules were performed to study complex stability. Results: Study reveals potent selective molecules that interact and form hydrogen bonds with amino acids Ser-6 and Lys-22 which are common to established melatonin inhibitors for MT-III. These include DMHMIO, MCA B and s27533 derivatives. The ADMET profiling was better with comparable interaction energy values. It includes properties like blood brain barrier, hepatotoxicity, druggability, mutagenicity and carcinogenicity. Molecular dynamics studies were performed to validate our findings.</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Proteins;Compounds;Hydrogen;Alzheimer's disease;Amino acids;Inhibitors;Alzheimer's disease;Metallothionein-III;Virtual Screening;ADMET;Molecular Dynamics</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>10.1109/ECODIM.2005.1619283</t>
+          <t>10.1109/BIBM.2014.6999184</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Lin, Ching-Chih, Chung, Mei-Hwa, Wang, Zen</t>
+          <t>Roy, Sudeep, Kumar, Akhil, Provazník, Ivo</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2014 IEEE/ACM International Conference on Computer-Aided Design (ICCAD)</t>
+          <t>2021 IEEE International Symposium on Technology and Society (ISTAS)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Design automation for biochemistry synthesis on a digital microfluidic lab-on-a-chip</t>
+          <t>Protecting marginalized communities by mitigating discrimination in toxic language detection</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>286-288</t>
+          <t>1-7</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Microfluidic biochips are recently being advocated for on-chip implementation of several biochemical laboratory assays or protocols [1]. Such labs-on-a-chip (LoC) have brought a complete paradigm shift in DNA analysis, toxicity grading, in molecular biology, and in drug design and delivery. This technology offers a viable and low-cost platform for reducing healthcare cost of cardiovascular diseases, cancer, diabetes, for providing point-of-care (P-o-C) health services [2, 3], and for the management of bio-terrorism threats [4]. These chips are also immensely useful for rapid and accurate diagnosis of various diseases including malaria, human immunodeficiency virus infection (HIV), acquired immunodeficiency syndrome (AIDS), and for mitigating neglected tropical diseases (NTD) prevalent in the developing countries [5].</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
+          <t>As the harms of online toxic language become more apparent, countering online toxic behavior is an essential application of natural language processing. The first step in managing toxic language risk is identification, but algorithmic approaches have themselves demonstrated bias. Texts containing some demographic identity terms such as gay or Black are more likely to be labeled as toxic in existing toxic language detection datasets. In many machine learning models introduced for toxic language detection, non-toxic comments containing minority and marginalized community-specific identity terms were given unreasonably high toxicity scores. To address the challenge of bias in toxic language detection, we propose a two-step training approach. A pretrained language model with a multitask learning objective will mitigate biases in the toxicity classifier prediction. Experiments demonstrate that jointly training the pretrained language model with a multitask objective can effectively mitigate the impacts of unintended biases and is more robust to model bias towards commonly-attacked identity groups presented in datasets without significantly hurting the model’s generalizability.</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Training;Deep learning;Toxicology;Machine learning algorithms;Bit error rate;Predictive models;Natural language processing</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>10.1109/ICCAD.2014.7001364</t>
+          <t>10.1109/ISTAS52410.2021.9629201</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Chakrabarty, Krishnendu, Bhattacharya, Bhargab B., Banerjee, Ansuman</t>
+          <t>Faal, Farshid, Schmitt, Ketra, Yu, Jia Yuan</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>2022 IEEE/ACM 44th International Conference on Software Engineering: Software Engineering in Society (ICSE-SEIS)</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Detecting Interpersonal Conflict in Issues and Code Review: Cross Pollinating Open- and Closed-Source Approaches</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>41-55</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Interpersonal conflict in code review, such as toxic language or an unnecessary pushback, is associated with negative outcomes such as stress and turnover. Automatic detection is one approach to prevent and mitigate interpersonal conflict. Two recent automatic detection approaches were developed in different settings: a toxicity detector using text analytics for open source issue discussions and a pushback detector using logs-based metrics for corporate code reviews. This paper tests how the toxicity detector and the pushback detector can be generalized beyond their respective contexts and discussion types, and how the combination of the two can help improve interpersonal conflict detection. The results reveal connections between the two concepts. LAY ABSTRACT Software engineers often communicate with one another on platforms that support tasks like discussing bugs and inspecting each others‘ code. Such discussions sometimes contain interpersonal conflict, which can lead to stress and abandonment. In this paper, we investigate how to automatically detect interpersonal conflict, both by analyzing the text of the what the engineers are saying and by analyzing the properties of that text.</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Measurement;Codes;Toxicology;Computer bugs;Detectors;Feature extraction;Software;code review;interpersonal conflict</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>10.1145/3510458.3513019</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Qiu, Huilian Sophie, Vasilescu, Bogdan, Kästner, Christian, Egelman, Carolyn, Jaspan, Ciera, Murphy-Hill, Emerson</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Toward a Programmable Humanizing Artificial Intelligence Through Scalable Stance-Directed Architecture</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>20-27</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>The rise of harmful online content underscores the urgent need for artificial intelligence (AI) systems to effectively detect, filter, and foster safer and healthier communication. This article introduces a novel approach to mitigating toxic content generation propensities of large language models (LLMs) by fine-tuning them with a programmable stance-directed focus on core human values and the common good. We propose a streamlined keyword coding and processing pipeline that generates weakly labeled data to train AI models to avoid toxicity and champion civil discourse. We also developed a toxicity classifier and an aspect-based sentiment analysis model to assess and control the effectiveness of a humanizing AI model. We evaluate the proposed pipeline using a contentious real-world X (formerly Twitter) dataset on U.S. race relations. Our approach successfully curbs the toxic content generation propensity of an unrestricted LLM by a significant 85%.</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Artificial intelligence;Training;Social networking (online);Internet;Blogs;Analytical models;Fake news;Content management;Information integrity;Privacy;Social factors;Large language models;Consumer protection</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>10.1109/MIC.2024.3450090</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Çetinkaya, Yusuf Mücahit, Lee, Yeonjung, Külah, Emre, Toroslu, İsmail Hakkı, Cowan, Michael A., Davulcu, Hasan</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2023 International Conference on New Trends in Computational Intelligence (NTCI)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Feature Attribution-Guided Contrastive Learning: Mitigating Lexical Bias in Toxic Speech Detection</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>266-272</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Automatic detection methods for toxic speech can potentially curb the dissemination of offensive, abusive, hateful, and other toxic speech on social media. However, these methods often show bias by overreacting to words such as identity terms, profanity, and swear words that occur in non-toxic speech and erroneously classifying them as toxic speech. Recent research has attempted to regularise relevant biased words in predefined lexicons to mitigate their impact on model classification. However, this approach faces two challenges. Firstly, words such as pro-fanity and swear words in biased words play a crucial role in the model's ability to identify toxic speech, and excessive suppression of these words using regularization methods can detrimentally affect the performance of the classification model. Secondly, due to the limitations of regularization techniques, existing methods rely on manually constructed biased word dictionaries, which can only mitigate bias associated with identity-related terms. This bias should not significantly impact hate speech prediction. It is challenging to encompass lexical biases such as profanity and swear words that are specific to different datasets beyond identity terms To address the above challenges, this paper proposes a novel feature attribution-guided contrastive learning method. The method consists of two repeated steps across epochs. In each epoch, first identifies keywords in sentences that are crucial for predicting toxicity through feature attribution. Then it applies contrastive learning to separate samples that have common toxic keywords but different labels. Experiments show that our approach can mitigate lexical bias in toxic speech detection without any data augmentation or prior knowledge and achieve competitive performance gains.</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Voice activity detection;Toxicology;Social networking (online);Self-supervised learning;Performance gain;Feature extraction;Task analysis;Toxic Speech;Bias Mitigation;Contrastive Learning;Feature Attribution</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>10.1109/NTCI60157.2023.10403665</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Peng, Zhenghan, Ren, Yizhi, Wang, Dong, Zhang, Ling, Yuan, Lifeng, Ji, Yihao</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Technological Solutions to Online Toxicity: Potential and Pitfalls</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>57-65</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Social media platforms present a perplexing duality, acting at once as sites to build community and a sense of belonging, while also giving rise to misinformation, facilitating and intensifying disinformation campaigns and perpetuating existing patterns of discrimination from the physical world. The first-step platforms take in mitigating the harmful side of social media involves identifying and managing toxic content. Users produce an enormous volume of posts which must be evaluated very quickly. This is an application context that requires machine-learning (ML) tools, but as we detail in this article, ML approaches rely on human annotators, analysts, and moderators. Our review of existing methods and potential improvements indicates that neither humans nor ML can be removed from this process in the near future. However, we see room for improvement in the working conditions of these human workers.</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Employee welfare;Social networking (online);Machine learning;Fake news;Information integrity;Community networks;Fake news;Information integrity;Behavioral sciences;Annotations;Modeling;Employee welfare;Data models;Content management;Blogs</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>10.1109/MTS.2023.3340235</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Bodaghi, Arezo, Fung, Benjamin C. M., Schmitt, Ketra A.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Structured Distribution of Electric Power Systems: The Example of a Roadway Tunnel Architecture</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2099-2105</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Modeling of the electric system “architecture” aims to achieve performances of safety, maintenance, operation, and reliability. This paper discusses the criteria in designing special cases, such as roadway tunnels, that need a structured architecture complying with electrical loads extensively distributed and with installation requirements proper to external stresses hazards such as fire hazard. Recommendations of mechanical and electrical criteria have to be graduated according to duty categories (as environment parameters for the road tunnels). Their consideration is essential for the settlement of the design criteria, which have to concern variable configurations to simplify installation problems, to allow a flexible operation, and to optimize the cost-benefit efficiency. A special power distribution, “brush-distribution,” is suitable for the strategic buildings with higher risk for seismic event and for the road tunnels against fire. The electrical power system of a roadway tunnel could raise high values with a relevant contribution by the mechanical ventilation and the support lighting. The authors suggest an adaptive criterion in designing the support lighting system in order to mitigate the cost and the energetic impact.</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Power distribution;Hazards;Fires;Roads;Power system modeling;Electrical safety;Maintenance;Power system reliability;Stress;Design optimization;Electric power systems;energy savings;fire hazard;road tunnels lighting;special installations</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>10.1109/TIA.2010.2059352</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Parise, Giuseppe, Martirano, Luigi</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2023 International Conference on Science, Engineering and Business for Sustainable Development Goals (SEB-SDG)</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Auspicious and Adverse Effects of Curcuma longa L Supplemented Diet on Total Protein and Kidney Injury Molecule-1 in Indomethacin Treated Rats</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>The influences of Curcuma longa rhizome supplemented diet at different percentages on total protein concentration in serum, selected organs (heart, kidney and liver) and kidney injury molecule-1 (KIM-1) of indomethacin treated rats were investigated in this study. A total of 35 mature male Wistar rats, weighing between 110 and 160g, were divided into seven groups of five rats each at random. Rats in groups A through D were fed diets supplemented with 1%, 2%, 5%, and 10% turmeric; group E received a pre-treatment of the conventional medication omeprazole (20 mg/kg) orally; and groups F and G received a 28-day supply of regular rat meal. Animals in all groups were then given a single oral dose of indomethacin (60 mg/kg b.w.), fasted for the next day (except group G), and left for six (6) hours before being sacrificed. The effect(s) of turmeric rhizome powder on total protein concentration in serum, the selected organs mentioned above and kidney KIM-1 were determined. It was revealed from this study that there was increased serum total protein concentration of animals in F and D groups compared with animals in groups G and A-C with concomitant decrease in heart and kidney protein activities in concentration dependent manner. However, there was no concomitant decrease in the liver of animals in groups G and A-C. Furthermore, the result also showed a significant $(P &lt; 0.05)$ increased expression of the kidney injury marker, KIM-1 in groups F and D in comparison with groups G and A-C in dose dependent wise. It can therefore be concluded that consumption of turmeric at 10% of whole recipe can enhance the damaging effect of indomethacin. Nonetheless, inclusion of turmeric powder at moderate concentration between 1-5% at most could mitigate the tissue damaging effect of indomethacin and therefore serve as tissue protective agent.</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Proteins;Heart;Powders;Liver;Rats;Regulation;Gene expression;protein;curcuma longa rhizome;supplemented diet;indomethacin;concentration</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>10.1109/SEB-SDG57117.2023.10124489</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Oluwafemi, Adekemi Grace, Ajayi, Olubunmi Bolanle, Amarachi, Acho Marvellous, Emmanuel, Damilare Rotimi, Omoniwa, Babasoji Percy</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Mitigation of whole-body gamma radiation–induced damages by Clerodendron infortunatum in mammalian organisms</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>281-291</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Several phytoceuticals and extracts of medicinal plants are reported to mitigate deleterious effects of ionizing radiation. The potential of hydro-alcoholic extract of Clerodendron infortunatum (CIE) for providing protection to mice exposed to gamma radiation was investigated. Oral administration of CIE bestowed a survival advantage to mice exposed to lethal doses of gamma radiation. Radiation-induced depletion of the total blood count and bone marrow cellularity were prevented by treatment with CIE. Damage to the cellular DNA (as was evident from the comet assay and the micronucleus index) was also found to be decreased upon CIE administration. Radiation-induced damages to intestinal crypt cells was also reduced by CIE. Studies on gene expression in intestinal cells revealed that there was a marked increase in the Bax/Bcl-2 ratio in mice exposed to whole-body 4 Gy gamma radiation, and that administration of CIE resulted in significant lowering of this ratio, suggestive of reduction of radiation-induced apoptosis. Also, in the intestinal tissue of irradiated animals, following CIE treatment, levels of expression of the DNA repair gene Atm were found to be elevated, and there was reduction in the expression of the inflammatory Cox-2 gene. Thus, our results suggest a beneficial use of Clerodendron infortunatum for mitigating radiation toxicity.</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Clerodendron infortunatum;radiomodifiers;radioprotectors;comet assay;Bax/Bcl-2 ratio;Cox-2;Atm</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>10.1093/jrr/rrw093</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Chacko, Tiju, Menon, Aditya, Majeed, Teeju, Nair, Sivaprabha V., John, Nithu Sara, Nair, Cherupally Krishnan Krishnan</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2003 User Group Conference. Proceedings</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Defense against chemical warfare agents and toxic industrial chemicals</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>55-59</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Research on mitigation of toxic threats is critical to national defense, but is often hazardous. Toxicity generally arises at the molecular level via reactions between toxins and host biomolecules. This lends itself well to simulations from which one may safely derive the insight required for effective preventative or therapeutic response strategies. Thus, we have applied quantum chemical methods to address toxicity arising from both hostile (i.e., nerve agents) and inadvertent (e.g., toxic industrial chemicals) sources. Neurotoxic reactions involving inhibition of the acetylcholinesterase enzyme have been structurally and energetically characterized with mind to mitigating the process. In a complementary effort, interactions between toxins and various catalytic and filtering media have been reported with an aim of improving chemical protection devices.</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Chemical industry;Toxic chemicals;Defense industry;Hydrogen;Protection;Biochemistry;Chemical hazards;Bonding;Filtration;Molecular biophysics</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>10.1109/DODUGC.2003.1253374</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Hurley, M.M., Wright, J.B., Balboa, A., Lushington, G.H.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Computational Drug Delivery: Molecular Simulation for Pharmaceutical Formulation</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>9 Nanotoxicity prediction in nanotechnology-driven drugs using QSPR modeling</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>183-220</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>The rapid expansion of nanotechnology in drug development has ushered in innovative therapeutic approaches while simultaneously raising concerns about potential nanotoxicity. This comprehensive review provides a thorough exploration of the evolving field of quantitative structure-property relationship (QSPR) modeling as a potent tool for predicting and mitigating nanotoxicity associated with nanotherapeutic agents. The review commences by underlining the transformative impact of nanotechnology on drug design, emphasizing the critical necessity of ensuring the safety and efficacy of nanomedicines. QSPR modeling emerges as an advanced computational approach harnessing physicochemical properties, structural descriptors, and toxicity endpoints to anticipate and comprehend nanotoxicity. The core of this review delves into the principles and methodologies of QSPR modeling, intricately describing the process of descriptor selection, dataset compilation, and model development. It scrutinizes the versatility of QSPR models in predicting a wide array of nanotoxicological endpoints, encompassing cellular responses, biodistribution patterns, and organ-specific toxicity profiles. Furthermore, the article underscores the significant clinical implications of QSPR modeling, discussing its potential for expediting nanotoxicity assessment during drug development, reducing reliance on animal testing, and facilitating regulatory approvals. It accentuates the pivotal role of QSPR modeling in optimizing nanotherapeutic formulations and minimizing adverse effects. Concluding on a forward-looking note, the review underscores the growing importance of QSPR modeling as an indispensable tool within the field of nanomedicine. It calls for sustained collaborative efforts to expand predictive models, address data gaps, and enhance our comprehension of nanotoxicity mechanisms. In summary, this review navigates the landscape of QSPR modeling for nanotoxicity prediction in the realm of nanotechnology- driven drugs, offering profound insights into its implications for advancing safe and efficacious nanotherapeutics.</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Drugs;Toxicology;Predictive models;Nanomaterials;Nanotechnology;Nanobioscience;Mathematical models;Chemicals;Biological system modeling;Safety</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Chawla, Pooja A., Hassan Mir, Reyaz, Chawla, Apporva, Ahad Mir, Prince, Sadique Hussain, Md, Ramzan, Sameena, Dedmari, Tooba, Mohi-ud-din, Roohi</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2006 International Conference of the IEEE Engineering in Medicine and Biology Society</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Neural Interface Dynamics Following Insertion of Hydrous Iridium Oxide Microelectrode Arrays</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3178-3181</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Studies examining traumatic brain injury have suggested a 'window of opportunity' exists for therapeutic agents to mitigate edema and cellular toxicity effectively. However, successful therapy also relies on identifying the extent of blood-brain barrier disruption, which is associated with excessive extra-cellular concentrations of ions, excitatory amino acids, and serum proteins. The following study investigates the use of pH-selective hydrous iridium oxide microelectrodes to assess trauma following insertion of a neural probe. Electrochemical activation of iridium microelectrode arrays was performed in either acidic (0.5 M H2SO4) or weak basic (0.3 M Na2HPO4, pH=8.56) solutions. Both oxides demonstrated super-Nernstian pH sensitivity (-88.5 mV/pH and -77.1 mV/pH, respectively) with little interference by other cations. Data suggest that acid-grown oxide provides better potential stability than base-grown oxide (sigma=2.8 versus 4.9 mV over 5 hours). Implantation of these electrodes into motor cortex and dorsal striatum revealed significant acidosis during and following insertion. Variability in the spatiotemporal pH profile included micro-scale inhomogeneities along the probe shank and significant differences in the averaged pH response between successive insertions using the same depth and speed. This diagnostic technology has important implications for intervention therapies in order to more effectively treat acute surgical brain trauma</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Microelectrodes;Medical treatment;Probes;Brain injuries;Amino acids;Proteins;Interference;Stability;Electrodes;Spatiotemporal phenomena</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>10.1109/IEMBS.2006.260521</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Johnson, Matthew D., Langhals, Nicholas B., Kipke, Daryl R.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2023 International Conference on Research Methodologies in Knowledge Management, Artificial Intelligence and Telecommunication Engineering (RMKMATE)</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Enhancing Photovoltaic Efficiency in CsSnI3-Based Perovskite Solar Cells through Optimal Defect Density</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1-4</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>The utilization of lead-based perovskite solar cells (PSCs) in commercial applications is significantly limited due to concerns over their toxicity and stability. Perovskite-based photovoltaic (PV) cells are right now at the forefront of thin-film PV research and development due to their high-power conversion efficiency (PCE) and ease of manufacture. Perovskite materials based on Pb or Sn elements have been employed in the fabrication of solar cells. In instances of this nature, the utilization of tin-based inorganic PSCs can play a crucial role in advancing the performance of PSCs to exceptional levels. In this context, we want to present a theoretical exploration of a PV device known as a CsSnl3-based PSC, which possesses the desirable attributes of being lead-free, environmentally sustainable, and dependable. The present study involves the utilization of SCAPS software to conduct device modelling of PV cells based on CsSnl3. The bulk defect density of the buffer layer, specifically CsSnl3, has been altered from 1015 to 1018 cm-3. Based on the comprehensive findings, it can be shown that the PV CsSnl3 metrics exhibit maximum values when the defect density of CsSnl3-based PSC is reduced. When the concentration of faults reaches its minimum level of 1012 cm-3, the PV values exhibit enhancement as seen below: The observed results consist of a PCE of 23.3%, a VOC of 0.87V, a JSC of 30.76 mA/cm2, and an FF of 86.69%. These findings underscore the significance of mitigating the bulk defect density in CsSnl3-based PSCs in order to attain enhanced efficiency. Through additional investigation and advancement, it is plausible that PSCs devoid of lead, which rely on CsSnl3 as the active layer, could present a more environmentally friendly and enduring substitute for conventional lead-based PSCs.</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Photovoltaic systems;Performance evaluation;Toxicology;Photovoltaic cells;Lead;Perovskites;Software;SCAPS;CsSnI3;PCE;defect density;lead-free</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>10.1109/RMKMATE59243.2023.10369406</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Rawat, Savita, Madan, Jaya</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2023 4th International Conference on Big Data, Artificial Intelligence and Internet of Things Engineering (ICBAIE)</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>A Multi-dimensional Generic Evaluation Framework for the Security of Large Language Models</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>410-414</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>In light of the widespread adoption of large language models, their susceptibility to security vulnerabilities cannot be overlooked. As a result, it has become imperative to evaluate their proficiency in addressing issues such as toxicity, bias, and disinformation. However, current research focused on appraising and mitigating security risks has predominantly concentrated on specific facets, leading to disparities in evaluation criteria. In contrast, there has been relatively limited attention given to multidimensional and universal frameworks for security evaluation. In this context, this paper delves into the realm of generic evaluation frameworks for security that offer support for cross-language and multi-category analysis. We underscore the existing challenges associated with prominent large language models concerning security issues and develop a comprehensive test data set to furnish researchers with a tool for quantifying security aspects. Through comprehensive evaluations across three major benchmark tests, we identify distinct strengths and weaknesses exhibited by each open source large language model to varying degrees. By employing a multi-dimensional security evaluation framework, we can attain a more holistic comprehension of the performance exhibited by each model across diverse security dimensions. This approach holds significant value in advancing the domain of security research and facilitating the practical application of language models.</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Toxicology;Media;Big Data;Benchmark testing;Data models;Security;Internet of Things;security evaluation;benchmark test;framework;generic;large language model</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>10.1109/ICBAIE59714.2023.10281279</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Yu, Zhiyin</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2021 International Conference on e-Health and Bioengineering (EHB)</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Salinity and SiO&lt;inf&gt;2&lt;/inf&gt; Impact on Growth and Biochemical Responses of Basil (Ocimum Basilicum L.) Seedlings</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1-4</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Silicon has the ability in ameliorating the negative effect of salinity on plants by reducing ionic toxicity and maintaining plant water balance, reducing oxidative stress. The present paper examines the effects of saline stress (50mM and 100mM NaCl) applied singular and in combination with SiO2 on basil (Ocimum basilicum L.) seedlings. Significant changes occurred in terms of shoot length, varying from 7.27 mm (50 mM NaCl) to 8.39 mm (50mM NaCl+SiNPs), and in the case of radicles, from 3.22 mm (SiNP) to 3.98 mm (100 mM NaCl), suggesting that salt treatment reduces shoot elongation, and SiO2 application could mitigate the saline stress effect. The activity of antioxidant enzymes in O. basilicum seedlings exposed to treatments, singular or in combination, was generally lower compared to the control. SiO2 supplement may contribute to the increase of salt tolerance, as reflected by the improvement of SOD and POD activity, especially in the combined treatment of 100 mM NaCl+SiO2.</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Silicon compounds;Toxicology;Salinity (geophysical);Pigments;Silicon;Biochemistry;Stress;SiO2;Ocimum basilicum;salinity;antioxidant system</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>10.1109/EHB52898.2021.9657645</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Oprica, Lacramioara, Grigore, Marius-Nicusor, Bara, Iulia, Vochita, Gabriela</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2017 Third International Conference on Advances in Electrical, Electronics, Information, Communication and Bio-Informatics (AEEICB)</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nanotechnology enabled hybrid power system suitable for batteries in hybrid electric vehicle</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>33-35</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Hybrid electric vehicles are playing very important key role in transportation. As atmospheric imbalance is a cause of large amount of carbon emission due to fuel used in vehicles. So to mitigate this problem use of electric vehicles is increasing day by day. Lithium-ion batteries are playing very crucial role in hybrid electric vehicles. As these batteries are very beneficial for proper functioning of hybrid electric vehicles. So Lithium-ion is the best and most promising choice at the present. Lithium-ion batteries have myriad amount of applications in the field of electric vehicles and portable electronics. The worldwide demand for a clean, low fuel-consuming road transportation system has given raises to the rapid growth of hybrid electric vehicles. Nanotechnology is playing vital role in enhancing the battery life. So use of nanostructure materials in battery design is increasing day by day. This enables battery to become effectual in many applications Lithium- ion batteries (LIBs) are the best choice as they have advantages such as high energy density, high discharge power and long service life. In large scale applications of lithium ion battery important aspects such as safety, toxicity, cost and myriad of raw materials become highly significant and also high discharge rate requirements can be fulfill by the use of nanostructure materials to achieve performance targets. This paper mainly focuses on use of nanotechnology in lithium-ion battery technology. For this purpose system can be designed which is combination of many technology and based on nanotechnology that enables to use nanostructure materials for lithium ion battery used in hybrid electric vehicles. This system is nanotechnology enabled hybrid system which can be very beneficial to ameliorates the performance of the battery that will further helps in ameliorating performance of hybrid electric vehicles. Super capacitors are used in parallel combination in the hybrid system to increases battery performance, efficiency and life of battery this system can play important role in betterment of transportation as well as in enhancing electrification of transportation. Nanostructure materials in batteries ameliorate the electrochemical performances of existing electrode materials for lithium-ion batteries, for this purpose nanotechnology based hybrid system is very beneficial.</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Hybrid electric vehicles;Ions;Lithium;Nanostructured materials;Hybrid Electric Vehicle (HEV);Lithium-ion Battery (LIB);Nanotechnology;Nanostructured materials;Nanotechnology based hybrid system</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>10.1109/AEEICB.2017.7972378</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Deshpande, Vaibhav S., Talele, Mohit N.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2005 4th International Symposium on Environmentally Conscious Design and Inverse Manufacturing</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>The Study of Designing for Environment on Liquid Crystal Display</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>523-524</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>The Flat Panel Display Industry in Taiwan recently has reached a numerous export value with tens of billion US dollars. It is also a core industry for Taiwan. However, the recent environmental protection strategy and directives developed in Europe, US, and Japan have been gradually shifting from the end of pipe mindset to a more impacts preventive approach from the product designing phase, which was perceived as a new trade barrier that could have significant negative impacts on Taiwan industries. Thus, this paper categorizes the international environmental standards, relative regulations and proposes some strategies of DfE for LCD products in Taiwan. This paper also presented successful cases of DfE application in LCD Monitor, indicated significant benefits could be obtained. For this case, costs reduction around $65,000 US dollars in materials and 2,500 hours saving in labor was achieved every year, and the pollutants emission was also mitigated with rate around 20∼30% estimated. By using saving energy, low toxicity, and recycling concept into development of LCD products, it would improve these products to comply with requirements from international regulations.</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Liquid crystal displays;Monitoring;Batteries;Product design;Recycling;Ink;Pigments;Electronics packaging;Plastic packaging;Mercury (metals);Design for Environment;Liquid Crystal Display;Green Products</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>10.1109/ECODIM.2005.1619283</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Lin, Ching-Chih, Chung, Mei-Hwa, Wang, Zen</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024 IEEE South Asian Ultrasonics Symposium (SAUS)</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Ultrasound Triggered Sonodynamic Therapy for the Treatment of B16 Melanoma</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1-4</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Ultrasounds (US) represent a non-ionizing form of a mechanical wave characterized by reduced adverse impacts compared to traditional cancer therapies or surgical interventions. In this investigation, Chlorophyll was employed as a natural sonosensitizer, substituting synthetic counterparts, to mitigate potential organ toxicity associated with nanoparticle usage. Specifically, gold nanoparticles were conjugated with Chlorophyll (designated as AuSP NCs) to elicit a sonodynamic response. The efficacy of this approach was evaluated on B16 melanoma cell lines as a model system. We synthesized AuSP NCs with a mean size of 70±10 nm. These AuSP NCs are proposed for application as sonosensitizers in treating Melanoma. This novel strategy integrates the distinctive properties of gold nanoparticles and Chlorophyll to augment the effectiveness of cancer therapy.</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Nanoparticles;Gold;Ultrasonic imaging;Temperature;Toxicology;Surgery;Melanoma;Gold nanocages;Silver nanocubes;Sonodynamic therapy;Melanoma;Ultrasound</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>10.1109/SAUS61785.2024.10563718</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Dehariya, Dheeraj, Murugaiyan, Kavipriya, Trivedi, Deeksha, Rengan, Aravind Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024 IEEE Symposium on Industrial Electronics &amp; Applications (ISIEA)</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Improving Hate Speech Detection Accuracy Using Hybrid CNN-RNN and Random Oversampling Techniques</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Detecting hate speech is crucial for addressing online toxicity and fostering a secure digital environment. This study aims to enhance the efficiency of hybrid CNN-RNN models, commonly used for this task, by improving accuracy. By integrating oversampling techniques with the model, the research aims to better categorize instances of hate speech, particularly in imbalanced datasets. The dataset used in this study is the Indonesian Tweet Hate Speech dataset. Following established protocols, including data pre-processing, training, and testing, significant improvements in accuracy are observed. The hybrid CNN-RNN achieves 0.827 accuracy, 0.797 precision, 0.759 recall, and 0.883 F1 score with imbalanced data. The model performs even better with balanced data, reaching 0.908 accuracy, 0.943 precision, 0.894 recall, and 0.914 F1 score. Notably, the proposed model outperforms the standard hybrid CNN-RNN on imbalanced datasets, with an accuracy of 0.752, precision of 0.797, recall of 0.559, and F1 score of 0.657. Techniques like dropout and early termination mitigate overfitting in complex models and large datasets. This research contributes to hate speech detection methods, underscoring the hybrid CNN-RNN's efficacy in handling imbalanced data, while future studies could explore additional methodologies for further enhancements.</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Training;Accuracy;Toxicology;Protocols;Prevention and mitigation;Hate speech;Reliability;hate speech;Twitter;hybrid CNN-RNN;balancing dataset;oversampling</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>10.1109/ISIEA61920.2024.10607232</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Riyadi, Slamet, Andriyani, Annisa Divayu, Masyhur, Ahmad Musthafa</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024 2nd International Conference on Sustainable Computing and Smart Systems (ICSCSS)</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>CivilityCheck: An Integrated Natural Language Processing and Machine Learning Framework to Detect Hateful and Offensive Language</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>985-988</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>The proliferation of hate speech and offensive language in online communities has escalated into a significant societal concern, prompting an urgent demand for robust tools capable of automatically identifying and addressing such content. Introducing CivilityCheck, a comprehensive framework that seamlessly integrates Natural Language Processing (NLP) and Machine Learning (ML) methodologies to uncover instances of hate speech and offensiveness within online discourse. Utilizing logistic regression models trained on Twitter datasets, CivilityCheck demonstrates remarkable efficacy, achieving a notable test accuracy of 95.4%. Moreover, the proposed framework extends its functionality into a user-friendly web browser extension, facilitating real-time analysis of social media content to cultivate a safer online environment. By endowing users with the capability to promptly identify and address toxic language, CivilityCheck contributes significantly to the propagation of civility and respect in digital interactions. This innovative solution stands at the forefront of combating online toxicity, offering a potent means to foster constructive dialogue and mitigate the harmful effects of coarse and regressive language usage on digital platforms.</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Logistic regression;Accuracy;Toxicology;Social networking (online);Hate speech;Refining;Machine learning;Hate Speech;Offensive Language;Natural Language Processing;Machine Learning;Logistic Regression;Real-time Analysis</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>10.1109/ICSCSS60660.2024.10625318</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Bonthu, Bhulakshmi, Abhay, Potluri, Gottipati, Likitha Sai, Vamsi, Gangisetty Krishna</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2023 11th International Conference on Affective Computing and Intelligent Interaction Workshops and Demos (ACIIW)</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Tiltometer: Real-Time Tilt Recognition in Esports</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1-3</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>This paper introduces the Tiltometer, a system designed to help mitigate the effects of emotional tilt in esports, specifically in the context of the popular multiplayer online battle arena (MOBA) game League of Legends (LoL). In esports, tilt or tilting refers to a progressive deterioration in gameplay due to negative emotions and loss of self-control. Our system integrates facial and speech emotion recognition with in-game events to compute a player’s tilt level in real-time. The tilt level is visualized alongside related data as an in-game overlay. Our goal is to aid players in breaking out of tilting behavior to improve gameplay and reduce toxicity.</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Emotion recognition;Affective computing;Toxicology;Conferences;Data visualization;Speech recognition;Games;tilt;esports;gaming;emotion recognition;real-time;affective computing</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>10.1109/ACIIW59127.2023.10388192</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Ortmann, Thorben, Maute, Sune, Heil, Franziska, Hildebrandt, Kilian, Jorshery, Pedram Berendjy, Putzar, Larissa</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2014 IEEE/ACM International Conference on Computer-Aided Design (ICCAD)</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Design automation for biochemistry synthesis on a digital microfluidic lab-on-a-chip</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>286-288</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Microfluidic biochips are recently being advocated for on-chip implementation of several biochemical laboratory assays or protocols [1]. Such labs-on-a-chip (LoC) have brought a complete paradigm shift in DNA analysis, toxicity grading, in molecular biology, and in drug design and delivery. This technology offers a viable and low-cost platform for reducing healthcare cost of cardiovascular diseases, cancer, diabetes, for providing point-of-care (P-o-C) health services [2, 3], and for the management of bio-terrorism threats [4]. These chips are also immensely useful for rapid and accurate diagnosis of various diseases including malaria, human immunodeficiency virus infection (HIV), acquired immunodeficiency syndrome (AIDS), and for mitigating neglected tropical diseases (NTD) prevalent in the developing countries [5].</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Protocols;System-on-chip;Routing;Laboratories;Drugs;Diseases;Design automation</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>10.1109/ICCAD.2014.7001364</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Chakrabarty, Krishnendu, Bhattacharya, Bhargab B., Banerjee, Ansuman</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024 IEEE International Conference on Electro Information Technology (eIT)</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Securing Applications of Large Language Models: A Shift-Left Approach</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1-2</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>The emergence of large language models (LLMs) has brought forth remarkable capabilities in various domains, yet it also poses inherent risks to trustfulness, encompassing concerns such as toxicity, stereotype bias, adversarial robustness, ethics, privacy, and fairness. Particularly in sensitive applications like customer support chatbots, AI assistants, and digital information automation, which handle privacy-sensitive data, the adoption of generative pre-trained transformer (GPT) models is pervasive. However, ensuring robust security measures to mitigate potential security vulnerabilities is imperative. This paper advocates for a proactive approach termed "security shift-left," which emphasizes integrating security measures early in the development lifecycle to bolster the security posture of LLM-based applications. Our proposed method leverages basic machine learning (ML) techniques and retrieval-augmented generation (RAG) to effectively address security concerns. We present empirical evidence validating the efficacy of our approach with one LLM-based security application designed for the detection of malicious intent, utilizing both open-source datasets and synthesized datasets. By adopting this security shift-left methodology, developers can confidently develop LLM-based applications with robust security protection, safeguarding against potential threats and vulnerabilities.</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Privacy;Ethics;Toxicology;Large language models;Transformers;Particle measurements;Robustness;Security Integration;LLMs;Security Shift-Left</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>10.1109/eIT60633.2024.10609922</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Lan, Qianlong, Kaul, Anuj, Das Pattanaik, Nishant Kumar, Pattanayak, Piyush, Pandurangan, Vinothini</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t>2018 13th Iberian Conference on Information Systems and Technologies (CISTI)</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>A software-based predictive model for greenhouse gas mitigation: Towards environmental sustainability</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>1-6</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>In the last years research-based programs relevant to sustainability have been developed. Some technological research programs are focused on the design of systems and processes that can be useful for mitigating greenhouse gas emissions as CO2. To diminish the negative impact caused by CO2 for global warming, its chemical transformation in Dimethyl Carbonate is a promising technology. Dimethyl Carbonate is a solvent with low toxicity and due to oxidative capacity can be used as fuel additive. In this work, the membrane reactor technology to improve the Dymethyl Carbonate production is explored from the perspective of modelling and simulation. As a result, a software-based model is implemented, in order to develop and couple different models for describing the membrane reactor. Simulation results showed that the membrane reactor, compared with conventional reactor, increase the reaction conversion and Dymethyl Carbonate production up to 67% and 78%, respectively. Finally, it can be seen that the solution obtained from software-based model allows to conclude that membrane reactor is a promising technology to mitigate CO2 emissions, allowing to achieve environmental sustainability.</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr">
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Mathematical model;Inductors;Monte Carlo methods;Production;Numerical models;Sustainable development;Software;Sustainability;Greenhouse emission;green reagent;simulation;membrane reactor technology</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
         <is>
           <t>10.23919/CISTI.2018.8399195</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Moncada, Sebastian Villegas, Palacio, Mauricio Gonzalez, Luna-delRisco, Mario, Orozco, Carlos Andres Arredondo, Jair, Jhon, Montealegre, Quiza, Imbachi, Jenny Cuantindoy, Diaz-Forero, Isabel</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>2016 IEEE 55th Conference on Decision and Control (CDC)</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>A convex optimization approach to cancer treatment to address tumor heterogeneity and imperfect drug penetration in physiological compartments</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>2494-2500</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>The clinical success of targeted cancer therapies is limited by the emergence of drug resistance often due to pre-existing tumor genetic heterogeneity and acquired, therapy-induced resistance. Targeted therapies have varied success in addressing metastatic disease, due to their ability to penetrate certain physiological compartments. This paper considers an evolutionary cancer model that incorporates tumor cell growth, mutation and compartmental migration and leverages recent results on the optimal control of monotone and convex systems to synthesize switching treatment strategies where a single drug or a predetermined combination of drugs is used at a given time. The need for switching is motivated by clinical considerations such as the limited effectiveness of any single targeted therapy against multiple resistance mechanisms arising in a single patient and the inability to design drug combinations at effective doses due to toxicity constraints. An optimal and clinically feasible switching therapy is obtained as the solution of a convex optimization problem that exploits the diagonally-dominant structure of the model. We demonstrate that this method yields an effective strategy in mitigating disease evolution in the presence of imperfect drug penetration in two compartments on an experimentally identified model of anaplastic lymphoma kinase (ALK)-rearranged lung carcinoma.</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr">
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Drugs;Tumors;Switches;Convex functions;Optimal control;Physiology</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
         <is>
           <t>10.1109/CDC.2016.7798636</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>Giordano, Giulia, Rantzer, Anders, Jonsson, Vanessa D.</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
         <is>
           <t>Latticed Channel Model of Touchable Communication Over Capillary Microcirculation Network</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>669-678</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>Recent progress on bioresorbable and bio-compatible miniature systems provides prospects for developing novel nanorobots operating inside the human body. These nanoscale systems are expected to dissolve in vivo and cause no side effect after completing their tasks. Motivated by these advancements, we have developed the analytical framework of touchable molecular communication (TouchCom) to describe the process of direct drug targeting (DDT) using externally controllable nanorobots. Built upon our previous work, we develop a novel latticed channel model of TouchCom for an interconnected capillary network near a targeted tumor area. Specifically, we propose a two-dimensional grid to synthesize the microcirculation environment, which is used to describe the propagation process of nanorobots. Furthermore, by applying the concept of multiple-input multiple-output (MIMO) systems in wireless communications to the therapeutic window in cancer treatment, we propose a MIMO DDT strategy in the latticed channel to enhance the targeting efficiency while minimizing the adverse effect of drug toxicity. Based on the proposed model, we study the influence of blood flow direction on the efficiency of DDT, and introduce a compensation strategy with the help of an external guiding field to mitigate the misalignment between the direction of blood flow and the tumor location.</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr">
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Tumors;Drugs;Targeted drug delivery;Channel models;Molecular communication (telecommunication);Touchable communication;latticed microcirculation network;direct drug targeting;molecular communication</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
         <is>
           <t>10.1109/TNB.2019.2943671</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>Zhou, Yu, Chen, Yifan</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>2023 International Seminar on Intelligent Technology and Its Applications (ISITIA)</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>Design and Simulation of Environment Indoor Air Quality Monitoring and Controlling System using IoT Technology</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>494-499</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>Environment indoor quality (EIQ) is a multifaceted problem encompassing a broad range and fluctuation of contaminants that pose risks to human health, satisfaction, welfare, and efficiency, particularly in relation to environment indoor air quality (EIAQ). The presence of indoor air pollutants (IAP) in the environment significantly influences the decline in the quality of human life, owing to the hazards associated with indoor air pollution and discomfort-causing pollutants affecting thermal comfort. This research features a proposed EIAQ monitoring and controlling system based on the environment indoor air quality index (EIAQI) for detecting, identifying, assessing, and controlling air pollutants. Further, it monitors the concentration of the gases and calculate the toxicity level of the environment status index. It also provides the output control system such as ventilation system and alert system to mitigate the air pollutants based on EIAQI automatically. The EIAQ system integrated with IoT technology to provide a monitoring application the entire air pollutant and EIAQI. As a result, the use of the indoor air quality (IAQ) system becomes a suitable method for identifying, categorizing, assessing, offering guidance, and implementing preventive measures to enhance the quality of the environment.</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr">
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Seminars;Toxicology;Process control;Air pollution;Control systems;Ventilation;Indexes;Environment indoor air quality (EIAQ);environment indoor air quality index (EIAQI);internet of things (IoT)</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
         <is>
           <t>10.1109/ISITIA59021.2023.10221098</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Dionova, Brainvendra Widi, Hendrawati, Dwiana, Abdulrazaq, Mohammed N., Vresdian, Devan Junesco, Hapsari, Anindya Ananda, Abdullah, Muhammad Irsyad, Pratama, Legenda Prameswono</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>2022 IEEE/ACM International Conference On Computer Aided Design (ICCAD)</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>Aging-Aware Training for Printed Neuromorphic Circuits</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>1-9</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>Printed electronics allow for ultra-low-cost circuit fabrication with unique properties such as flexibility, non-toxicity, and stretchability. Because of these advanced properties, there is a growing interest in adapting printed electronics for emerging areas such as fast-moving consumer goods and wearable technologies. In such domains, analog signal processing in or near the sensor is favorable. Printed neuromorphic circuits have been recently proposed as a solution to perform such analog processing natively. Additionally, their learning-based design process allows high eﬃciency of their optimization and enables them to mitigate the high process variations associated with low-cost printed processes. In this work, we address the aging of the printed components. This effect can significantly degrade the accuracy of printed neuromorphic circuits over time. For this, we develop a stochastic aging-model to describe the behavior of aged printed resistors and modify the training objective by considering the expected loss over the lifetime of the device. This approach ensures to provide acceptable accuracy over the device lifetime. Our experiments show that an overall 35.8% improvement in terms of expected accuracy over the device lifetime can be achieved using the proposed learning approach.</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr">
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Training;Resistors;Fabrication;Design automation;Neuromorphics;Stochastic processes;Aging;printed electronics;neuromorphic computing;aging model;aging-aware training</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
         <is>
           <t>Zhao, Haibin, Hefenbrock, Michael, Beigl, Michael, Tahoori, Mehdi B.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>CardiOT: Towards Interpretable Drug Cardiotoxicity Prediction Using Optimal Transport and Kolmogorov-Arnold Networks</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1-12</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Investigating the inhibitory effects of compounds on cardiac ion channels is essential for assessing cardiac drug safety. Consequently, researchers have developed computational models to evaluate combined cardiotoxicity (CCT) on cardiac ion channels. However, limitations in experimental data often cause issues like uneven data distribution and scarcity. Additionally, existing models primarily emphasize atomic information flow within graph neural networks (GNNs) while overlooking chemical bonds, leading to inadequate recognition of key structures. Therefore, this study integrates optimal transport (OT), structure remapping (SR), and Kolmogorov-Arnold networks (KANs) into a GNN-based CCT prediction model, CardiOT. First, the proposed CardiOT model employs OT pooling to optimize sample-feature joint distribution using expectation maximization, identifying ”important” samplefeature pairs. Additionally, SR technology is used to emphasize the role of chemical bond information in message propagation. KAN technology is integrated to greatly enhance model interpretability. In summary, the model mitigates challenges related to uneven data distribution and scarcity. Multiple experiments on public datasets confirm the model's robust performance. We anticipate that this model will provide deeper insights into compound inhibition mechanisms on cardiac ion channels and reduce toxicity risks. Our code and data are accessible at: https://github.com/2014402680/CCT</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Drugs;Compounds;Predictive models;Ions;Chemicals;Safety;Data models;Accuracy;Toxicology;Prediction algorithms;inhibitory effects of drugs;compound cardiotoxicity (CCT);optimal transport (OT);KolmogorovArnold networks (KANs);uneven distribution and data scarcity;cardiac drug safety</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>10.1109/JBHI.2024.3510297</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Zhang, Xinyu, Wang, Hao, Du, Zhenya, Zhuo, Linlin, Fu, Xiangzheng, Cao, Dongsheng, Xie, Boqia, Li, Keqin</t>
         </is>
       </c>
     </row>
